--- a/URS_Certifications 09.01.25.xlsx
+++ b/URS_Certifications 09.01.25.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5307655-3DA9-40F2-A928-A7413E19AEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A30AC6-E9D7-4137-A12F-81066F4AEDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 09.01.25" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="734">
   <si>
     <t>Название компании</t>
   </si>
@@ -2123,12 +2123,6 @@
   </si>
   <si>
     <t xml:space="preserve">Общество с ограниченной ответственностью "ИЛМАКС" Завод по производству строительных материалов </t>
-  </si>
-  <si>
-    <t>Кандрашин А.В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИП </t>
   </si>
   <si>
     <t>Шумихинский завод подшипниковых иглороликов</t>
@@ -2233,7 +2227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3087,11 +3081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1287" workbookViewId="0">
+      <selection activeCell="J1300" sqref="J1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29200,28 +29194,11 @@
       </c>
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1301" t="s">
-        <v>701</v>
-      </c>
-      <c r="B1301" t="s">
-        <v>702</v>
-      </c>
-      <c r="D1301" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1301" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1301" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1301" s="1">
-        <v>46730</v>
-      </c>
+      <c r="G1301" s="1"/>
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B1302" t="s">
         <v>28</v>
@@ -29244,7 +29221,7 @@
     </row>
     <row r="1303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B1303" t="s">
         <v>28</v>
@@ -29267,7 +29244,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B1304" t="s">
         <v>24</v>
@@ -29310,10 +29287,10 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B1306" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D1306" t="s">
         <v>690</v>
@@ -29322,7 +29299,7 @@
         <v>691</v>
       </c>
       <c r="F1306" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G1306" s="1">
         <v>46377</v>
@@ -29330,7 +29307,7 @@
     </row>
     <row r="1307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B1307" t="s">
         <v>24</v>
@@ -29364,7 +29341,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B1309" t="s">
         <v>24</v>
@@ -29387,7 +29364,7 @@
     </row>
     <row r="1310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B1310" t="s">
         <v>24</v>
@@ -29407,7 +29384,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B1311" t="s">
         <v>24</v>
@@ -29430,7 +29407,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B1312" t="s">
         <v>24</v>
@@ -29453,7 +29430,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B1313" t="s">
         <v>24</v>
@@ -29465,7 +29442,7 @@
         <v>690</v>
       </c>
       <c r="E1313" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F1313" t="s">
         <v>11</v>
@@ -29473,7 +29450,7 @@
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B1314" t="s">
         <v>24</v>
@@ -29481,13 +29458,13 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B1315" t="s">
         <v>690</v>
       </c>
       <c r="C1315" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1315" t="s">
         <v>11</v>
@@ -29495,7 +29472,7 @@
     </row>
     <row r="1316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B1316" t="s">
         <v>8</v>
@@ -29507,7 +29484,7 @@
         <v>690</v>
       </c>
       <c r="E1316" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F1316" t="s">
         <v>11</v>
@@ -29518,7 +29495,7 @@
     </row>
     <row r="1317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B1317" t="s">
         <v>24</v>
@@ -29541,7 +29518,7 @@
     </row>
     <row r="1318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1318" t="s">
         <v>24</v>
@@ -29564,7 +29541,7 @@
     </row>
     <row r="1319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B1319" t="s">
         <v>24</v>
@@ -29587,7 +29564,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B1320" t="s">
         <v>24</v>
@@ -29595,13 +29572,13 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B1321" t="s">
         <v>690</v>
       </c>
       <c r="C1321" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D1321" t="s">
         <v>11</v>
@@ -29612,10 +29589,10 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B1322" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D1322" t="s">
         <v>690</v>
@@ -29632,12 +29609,12 @@
         <v>10</v>
       </c>
       <c r="F1323" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B1324" t="s">
         <v>24</v>
@@ -29654,7 +29631,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B1325" t="s">
         <v>24</v>
@@ -29671,7 +29648,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B1326" t="s">
         <v>8</v>
@@ -29694,7 +29671,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1327" t="s">
         <v>24</v>
@@ -29717,7 +29694,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B1328" t="s">
         <v>24</v>
@@ -29740,7 +29717,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E1329" t="s">
         <v>84</v>
@@ -29753,28 +29730,11 @@
       </c>
     </row>
     <row r="1330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1330" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1330" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1330" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1330" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1330" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1330" s="1">
-        <v>46731</v>
-      </c>
+      <c r="G1330" s="1"/>
     </row>
     <row r="1331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B1331" t="s">
         <v>24</v>
@@ -29797,7 +29757,7 @@
     </row>
     <row r="1332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B1332" t="s">
         <v>24</v>
@@ -29814,7 +29774,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B1333" t="s">
         <v>24</v>
